--- a/yamf-examples/sample-reports/example-mvn-marks-submission1.xlsx
+++ b/yamf-examples/sample-reports/example-mvn-marks-submission1.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="results" r:id="rId3" sheetId="1"/>
+    <sheet name="details-1" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="135">
   <si>
     <t>task</t>
   </si>
@@ -29,12 +30,18 @@
     <t>notes</t>
   </si>
   <si>
+    <t>details</t>
+  </si>
+  <si>
     <t>Q1 -- project must contain a valid pom.xml file</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Q2 -- project must have valid directory structure with sources in the right places</t>
   </si>
   <si>
@@ -53,6 +60,9 @@
     <t>Q6 -- tests must all succeed</t>
   </si>
   <si>
+    <t>details-1</t>
+  </si>
+  <si>
     <t>Q7 -- the project must only use junit 4.* as its sole dependency (see https://mvnrepository.com/artifact/junit/junit for dependency details)</t>
   </si>
   <si>
@@ -71,7 +81,343 @@
     <t>summary</t>
   </si>
   <si>
-    <t/>
+    <t>TEST-test.nz.ac.vuw.ecs.examples.mvn.TestMath.xml</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" ?&gt;</t>
+  </si>
+  <si>
+    <t>&lt;testsuite tests="4" failures="2" name="test.nz.ac.vuw.ecs.examples.mvn.TestMath" time="0.009" errors="0" skipped="0"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;properties&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.runtime.name" value="Java(TM) SE Runtime Environment"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.vm.version" value="11.0.2+9-LTS"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="sun.boot.library.path" value="/Library/Java/JavaVirtualMachines/jdk-11.0.2.jdk/Contents/Home/lib"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="gopherProxySet" value="false"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="maven.multiModuleProjectDirectory" value="/Users/jens/Development/yamf/yamf-examples/examples/mvn-static/submissions/submission1"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.vm.vendor" value="Oracle Corporation"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.vendor.url" value="http://java.oracle.com/"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="guice.disable.misplaced.annotation.check" value="true"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="path.separator" value=":"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.vm.name" value="Java HotSpot(TM) 64-Bit Server VM"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="sun.os.patch.level" value="unknown"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="user.country" value="AU"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="sun.java.launcher" value="SUN_STANDARD"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.vm.specification.name" value="Java Virtual Machine Specification"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="user.dir" value="/Users/jens/Development/yamf/yamf-examples/examples/mvn-static/submissions/submission1"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.vm.compressedOopsMode" value="Zero based"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.runtime.version" value="11.0.2+9-LTS"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.awt.graphicsenv" value="sun.awt.CGraphicsEnvironment"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="os.arch" value="x86_64"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.io.tmpdir" value="/var/folders/l1/rxp_hcxs4pvg87b3k1h8xx280000gp/T/"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="line.separator" value="</t>
+  </si>
+  <si>
+    <t>"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.vm.specification.vendor" value="Oracle Corporation"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="os.name" value="Mac OS X"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="classworlds.conf" value="/usr/local/Cellar/maven/3.6.0/libexec/bin/m2.conf"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="maven.test.error.ignore" value="true"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="sun.jnu.encoding" value="UTF-8"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.library.path" value="/Users/jens/Library/Java/Extensions:/Library/Java/Extensions:/Network/Library/Java/Extensions:/System/Library/Java/Extensions:/usr/lib/java:."/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="maven.conf" value="/usr/local/Cellar/maven/3.6.0/libexec/conf"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="jdk.debug" value="release"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.class.version" value="55.0"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.specification.name" value="Java Platform API Specification"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="sun.management.compiler" value="HotSpot 64-Bit Tiered Compilers"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="maven.test.failure.ignore" value="true"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="os.version" value="10.15.4"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="library.jansi.path" value="/usr/local/Cellar/maven/3.6.0/libexec/lib/jansi-native"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="http.nonProxyHosts" value="local|*.local|169.254/16|*.169.254/16|localhost|*.localhost"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="user.home" value="/Users/jens"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="user.timezone" value="Pacific/Auckland"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.awt.printerjob" value="sun.lwawt.macosx.CPrinterJob"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="file.encoding" value="UTF-8"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.specification.version" value="11"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="user.name" value="jens"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.class.path" value="/usr/local/Cellar/maven/3.6.0/libexec/boot/plexus-classworlds-2.5.2.jar"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.vm.specification.version" value="11"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="sun.arch.data.model" value="64"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="sun.java.command" value="org.codehaus.plexus.classworlds.launcher.Launcher -Dmaven.test.failure.ignore=true -Dmaven.test.error.ignore=true test"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.home" value="/Library/Java/JavaVirtualMachines/jdk-11.0.2.jdk/Contents/Home"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="user.language" value="en"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.specification.vendor" value="Oracle Corporation"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="awt.toolkit" value="sun.lwawt.macosx.LWCToolkit"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.vm.info" value="mixed mode"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.version" value="11.0.2"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.vendor" value="Oracle Corporation"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="maven.home" value="/usr/local/Cellar/maven/3.6.0/libexec"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="file.separator" value="/"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.version.date" value="2019-01-15"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.vendor.url.bug" value="http://bugreport.java.com/bugreport/"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="sun.io.unicode.encoding" value="UnicodeBig"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="sun.cpu.endian" value="little"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="java.vendor.version" value="18.9"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="socksNonProxyHosts" value="local|*.local|169.254/16|*.169.254/16|localhost|*.localhost"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="ftp.nonProxyHosts" value="local|*.local|169.254/16|*.169.254/16|localhost|*.localhost"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;property name="sun.cpu.isalist" value=""/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/properties&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;testcase classname="test.nz.ac.vuw.ecs.examples.mvn.TestMath" name="testPlus1" time="0.005"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;testcase classname="test.nz.ac.vuw.ecs.examples.mvn.TestMath" name="testPlus2" time="0"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;testcase classname="test.nz.ac.vuw.ecs.examples.mvn.TestMath" name="testMinus1" time="0.004"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;failure message="expected:&amp;lt;2&amp;gt; but was:&amp;lt;6&amp;gt;" type="junit.framework.AssertionFailedError"&gt;junit.framework.AssertionFailedError: expected:&amp;lt;2&amp;gt; but was:&amp;lt;6&amp;gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at junit.framework.Assert.fail(Assert.java:57)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at junit.framework.Assert.failNotEquals(Assert.java:329)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at junit.framework.Assert.assertEquals(Assert.java:78)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at junit.framework.Assert.assertEquals(Assert.java:234)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at junit.framework.Assert.assertEquals(Assert.java:241)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at junit.framework.TestCase.assertEquals(TestCase.java:384)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at test.nz.ac.vuw.ecs.examples.mvn.TestMath.testMinus1(TestMath.java:22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at java.base/java.lang.reflect.Method.invoke(Method.java:566)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at org.junit.runners.model.FrameworkMethod$1.runReflectiveCall(FrameworkMethod.java:59)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at org.junit.internal.runners.model.ReflectiveCallable.run(ReflectiveCallable.java:12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at org.junit.runners.model.FrameworkMethod.invokeExplosively(FrameworkMethod.java:56)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at org.junit.internal.runners.statements.InvokeMethod.evaluate(InvokeMethod.java:17)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at org.junit.runners.BlockJUnit4ClassRunner$1.evaluate(BlockJUnit4ClassRunner.java:100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at org.junit.runners.ParentRunner.runLeaf(ParentRunner.java:366)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at org.junit.runners.BlockJUnit4ClassRunner.runChild(BlockJUnit4ClassRunner.java:103)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at org.junit.runners.BlockJUnit4ClassRunner.runChild(BlockJUnit4ClassRunner.java:63)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at org.junit.runners.ParentRunner.run(ParentRunner.java:413)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at org.apache.maven.surefire.junit4.JUnit4Provider.execute(JUnit4Provider.java:252)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at org.apache.maven.surefire.junit4.JUnit4Provider.executeTestSet(JUnit4Provider.java:141)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at org.apache.maven.surefire.junit4.JUnit4Provider.invoke(JUnit4Provider.java:112)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at org.apache.maven.surefire.util.ReflectionUtils.invokeMethodWithArray(ReflectionUtils.java:189)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at org.apache.maven.surefire.booter.ProviderFactory$ProviderProxy.invoke(ProviderFactory.java:165)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at org.apache.maven.surefire.booter.ProviderFactory.invokeProvider(ProviderFactory.java:85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at org.apache.maven.surefire.booter.ForkedBooter.runSuitesInProcess(ForkedBooter.java:115)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at org.apache.maven.surefire.booter.ForkedBooter.main(ForkedBooter.java:75)</t>
+  </si>
+  <si>
+    <t>&lt;/failure&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/testcase&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;testcase classname="test.nz.ac.vuw.ecs.examples.mvn.TestMath" name="testMinus2" time="0"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;failure message="expected:&amp;lt;-1&amp;gt; but was:&amp;lt;9&amp;gt;" type="junit.framework.AssertionFailedError"&gt;junit.framework.AssertionFailedError: expected:&amp;lt;-1&amp;gt; but was:&amp;lt;9&amp;gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	at test.nz.ac.vuw.ecs.examples.mvn.TestMath.testMinus2(TestMath.java:27)</t>
+  </si>
+  <si>
+    <t>&lt;/testsuite&gt;</t>
   </si>
 </sst>
 </file>
@@ -79,13 +425,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -177,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
@@ -194,20 +555,29 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center" horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center" horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" horizontal="left"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -215,18 +585,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="137.3828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.01953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.1171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="123.4453125" customWidth="true" bestFit="true"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
@@ -244,160 +607,1016 @@
       <c r="E1" t="s" s="5">
         <v>4</v>
       </c>
+      <c r="F1" t="s" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="6">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s" s="7">
+      <c r="A2" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="C2" t="n" s="8">
+      <c r="B2" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="D2" t="n" s="8">
+      <c r="D2" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="6">
+      <c r="A3" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="B3" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n" s="8">
+      <c r="C3" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="D3" t="n" s="8">
+      <c r="D3" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C4" t="n" s="8">
+      <c r="A4" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n" s="9">
         <v>0.0</v>
       </c>
-      <c r="D4" t="n" s="8">
+      <c r="D4" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n" s="8">
+      <c r="A5" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="D5" t="n" s="8">
+      <c r="D5" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="6">
+      <c r="A6" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="D6" t="n" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="E6" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="B6" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n" s="8">
+      <c r="C7" t="n" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="E7" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="D6" t="n" s="8">
+      <c r="D8" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C7" t="n" s="8">
+      <c r="E8" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="C9" t="n" s="9">
         <v>0.0</v>
       </c>
-      <c r="D7" t="n" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n" s="8">
+      <c r="D9" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="D8" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="C9" t="n" s="8">
+      <c r="E9" t="s" s="7">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n" s="9">
+        <v>-1.0</v>
+      </c>
+      <c r="D10" t="n" s="9">
         <v>0.0</v>
       </c>
-      <c r="D9" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="E9" t="s" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n" s="8">
-        <v>-1.0</v>
-      </c>
-      <c r="D10" t="n" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="6"/>
+      <c r="E10" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="C11" t="n" s="10">
+      <c r="A11" t="s" s="11">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n" s="11">
         <f>C2+C3+C4+C5+C6+C7+C8+C9+C10</f>
         <v>0.0</v>
       </c>
-      <c r="D11" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s" s="9">
-        <v>19</v>
+      <c r="D11" t="n" s="11">
+        <f>D2+D3+D4+D5+D6+D7+D8+D9+D10</f>
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s" s="10">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A158"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="191.30078125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="13">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="13">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="13">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="13">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="13">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="13">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="13">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="13">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="13">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="13">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="13">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="13">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="13">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="13">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="13">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="13">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="13">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="13">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="13">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="13">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="13">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="13">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="13">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="13">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="13">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="13">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="13">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="13">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="13">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="13">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="13">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="13">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="13">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="13">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="13">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="13">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="13">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="13">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="13">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="13">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="13">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="13">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="13">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="13">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="13">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="13">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="13">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="13">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="13">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="13">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="13">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="13">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="13">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
